--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1891.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1891.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.254933123072977</v>
+        <v>1.315233826637268</v>
       </c>
       <c r="B1">
-        <v>2.96305263849008</v>
+        <v>1.979480624198914</v>
       </c>
       <c r="C1">
-        <v>4.010285384668186</v>
+        <v>2.754829168319702</v>
       </c>
       <c r="D1">
-        <v>2.453291979294952</v>
+        <v>3.786533117294312</v>
       </c>
       <c r="E1">
-        <v>0.9288220690264568</v>
+        <v>1.023110032081604</v>
       </c>
     </row>
   </sheetData>
